--- a/Nado Game/pyqt5/자재관리/입고대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/입고대장.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\pyqt5\자재관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA92101A-126F-4E44-9E08-F1E4AFE3CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="44190" yWindow="2370" windowWidth="12075" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="43">
   <si>
     <t>입고일</t>
   </si>
@@ -46,61 +40,129 @@
     <t>비고</t>
   </si>
   <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
     <t>2022-05-21</t>
   </si>
   <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>LED 전구</t>
+  </si>
+  <si>
+    <t>형광등</t>
+  </si>
+  <si>
+    <t>백열등</t>
+  </si>
+  <si>
+    <t>가스</t>
+  </si>
+  <si>
+    <t>LED 전등</t>
+  </si>
+  <si>
+    <t xml:space="preserve">청소기 </t>
+  </si>
+  <si>
+    <t>할로겐 등</t>
+  </si>
+  <si>
+    <t>11w</t>
+  </si>
+  <si>
+    <t>EL-11W(삼파장)</t>
+  </si>
+  <si>
+    <t>EL-20W(삼파장)</t>
+  </si>
+  <si>
+    <t>FDX-18W 램프</t>
+  </si>
+  <si>
+    <t>FDX-18W 안정기</t>
+  </si>
+  <si>
+    <t>FPL-32W 램프</t>
+  </si>
+  <si>
+    <t>FPL-32W 안정기1등용</t>
+  </si>
+  <si>
+    <t>FPL-55W 램프</t>
+  </si>
+  <si>
+    <t>FPL-55W 안정기</t>
+  </si>
+  <si>
+    <t>IL 60W</t>
+  </si>
+  <si>
+    <t>가스탐지기</t>
+  </si>
+  <si>
+    <t>센서등 13w</t>
+  </si>
+  <si>
+    <t>센서모듈 1등용</t>
+  </si>
+  <si>
+    <t>진공청소기필터</t>
+  </si>
+  <si>
+    <t>할로겐 50W 안정기</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>542121</t>
+  </si>
+  <si>
+    <t>23570</t>
+  </si>
+  <si>
     <t>인터넷 쇼핑몰</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>LED 전구</t>
-  </si>
-  <si>
-    <t>11w</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>LED 전등</t>
-  </si>
-  <si>
-    <t>센서등 13w</t>
+    <t>111</t>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,18 +208,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -445,26 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,61 +532,1905 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/자재관리/입고대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/입고대장.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="64">
   <si>
     <t>입고일</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2022-05-26</t>
   </si>
   <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
     <t>LED 전구</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>할로겐 등</t>
   </si>
   <si>
+    <t>동 현관 자동문</t>
+  </si>
+  <si>
     <t>11w</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>65w</t>
   </si>
   <si>
+    <t>하부 롤러</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>45</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>250000</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>45000</t>
   </si>
   <si>
+    <t>49500</t>
+  </si>
+  <si>
     <t>23570</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>1000</t>
   </si>
   <si>
+    <t>16500</t>
+  </si>
+  <si>
     <t>인터넷 쇼핑몰</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>kll</t>
   </si>
   <si>
+    <t>위컴유비스</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
   </si>
   <si>
     <t>jj</t>
+  </si>
+  <si>
+    <t>6월 25일 결대 예정</t>
   </si>
 </sst>
 </file>
@@ -539,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,25 +600,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -602,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -628,25 +652,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -654,25 +678,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -680,25 +704,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -706,25 +730,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -732,25 +756,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -758,25 +782,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -784,25 +808,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -810,25 +834,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -836,25 +860,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -862,25 +886,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -888,25 +912,25 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -914,25 +938,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -940,25 +964,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -966,25 +990,25 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -992,25 +1016,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1018,25 +1042,25 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1044,25 +1068,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1070,25 +1094,25 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1096,25 +1120,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1122,25 +1146,25 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1148,25 +1172,25 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1174,25 +1198,25 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1200,25 +1224,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1226,25 +1250,25 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1252,25 +1276,25 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1278,25 +1302,25 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1304,25 +1328,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1330,25 +1354,25 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1356,25 +1380,25 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1382,25 +1406,25 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1408,25 +1432,25 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1434,25 +1458,25 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1460,25 +1484,25 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1486,25 +1510,25 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1512,25 +1536,25 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1538,25 +1562,25 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1564,25 +1588,25 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1590,25 +1614,25 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1616,25 +1640,25 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1642,25 +1666,25 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1668,25 +1692,25 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1694,25 +1718,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1720,25 +1744,25 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1746,25 +1770,25 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1772,25 +1796,25 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1798,25 +1822,25 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1824,25 +1848,25 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1850,25 +1874,25 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1876,25 +1900,25 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1902,25 +1926,25 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1928,25 +1952,25 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1954,25 +1978,25 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1980,25 +2004,25 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2006,25 +2030,25 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2032,25 +2056,25 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2058,25 +2082,25 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2084,25 +2108,25 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2110,25 +2134,25 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2136,25 +2160,25 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2162,25 +2186,25 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2188,25 +2212,25 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2214,25 +2238,25 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H65" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2240,25 +2264,25 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2266,25 +2290,25 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2292,25 +2316,25 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2318,25 +2342,25 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2344,25 +2368,25 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2370,25 +2394,25 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2396,25 +2420,25 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2422,25 +2446,25 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2448,25 +2472,25 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2474,25 +2498,25 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2500,25 +2524,51 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
         <v>15</v>
       </c>
-      <c r="C76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
         <v>45</v>
       </c>
-      <c r="F76" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" t="s">
-        <v>55</v>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/pyqt5/자재관리/입고대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/입고대장.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4129,6 +4129,48 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">청소기 </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>진공청소기필터</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Nado Game/pyqt5/자재관리/입고대장.xlsx
+++ b/Nado Game/pyqt5/자재관리/입고대장.xlsx
@@ -1,119 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\자재관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB60D0-689A-4623-975D-D6D1EECF2AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1320" windowWidth="15585" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>일자</t>
-  </si>
-  <si>
-    <t>품명</t>
-  </si>
-  <si>
-    <t>규격</t>
-  </si>
-  <si>
-    <t>입고수량</t>
-  </si>
-  <si>
-    <t>구입금액</t>
-  </si>
-  <si>
-    <t>단가</t>
-  </si>
-  <si>
-    <t>구입업체</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
-  </si>
-  <si>
-    <t>2022-06-09</t>
-  </si>
-  <si>
-    <t>알람밸브 압력계</t>
-  </si>
-  <si>
-    <t>LED 전구</t>
-  </si>
-  <si>
-    <t>25Kg/cm2 60A</t>
-  </si>
-  <si>
-    <t>11w</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7300</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>네이버 쇼핑</t>
-  </si>
-  <si>
-    <t>택배료 포함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,48 +46,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,27 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,24 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,96 +420,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>일자</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>품명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>규격</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>입고수량</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>구입금액</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>단가</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>구입업체</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>알람밸브 압력계</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25Kg/cm2 60A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7300</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7300</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>네이버 쇼핑</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>택배료 포함</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LED 전구</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11w</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>알람밸브 압력계</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25Kg/cm2 60A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>소방공사</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>